--- a/database_excel_files/CCMIdToCampId.xlsx
+++ b/database_excel_files/CCMIdToCampId.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B5F0BE-F6D2-403E-9656-2BEF4C6590C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D3B5F0BE-F6D2-403E-9656-2BEF4C6590C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{943D79E4-02C0-4532-9171-BF8AA099D4A0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>campId</t>
   </si>
@@ -33,16 +33,70 @@
     <t>ccmId</t>
   </si>
   <si>
-    <t>ccm1</t>
-  </si>
-  <si>
-    <t>camp1</t>
-  </si>
-  <si>
-    <t>ccm2</t>
-  </si>
-  <si>
-    <t>camp2</t>
+    <t>CCM1</t>
+  </si>
+  <si>
+    <t>aeebf47a69a24d0e863c39e58066d611</t>
+  </si>
+  <si>
+    <t>CCM2</t>
+  </si>
+  <si>
+    <t>b6d43c568bb647539135919c8c4eefd0</t>
+  </si>
+  <si>
+    <t>0c2f901a1f0348b49c9769fad9e1f702</t>
+  </si>
+  <si>
+    <t>c840388de3004a1480144eb7370695ba</t>
+  </si>
+  <si>
+    <t>47314cc237fe4507bc2269fdfc4e9772</t>
+  </si>
+  <si>
+    <t>027d823b7ed44ac390eaa7cb17fd2a02</t>
+  </si>
+  <si>
+    <t>CCasdM1</t>
+  </si>
+  <si>
+    <t>fd24f46687d448a296b6786b791388ed</t>
+  </si>
+  <si>
+    <t>CCasdM2</t>
+  </si>
+  <si>
+    <t>0de8b74b4e09469d8cf55e0997e6a701</t>
+  </si>
+  <si>
+    <t>CCasasddM1</t>
+  </si>
+  <si>
+    <t>CCasdMasd2</t>
+  </si>
+  <si>
+    <t>9f0c6278fc33441a8fc36b7420ff2c07</t>
+  </si>
+  <si>
+    <t>0423df356e6748d3b7f3e0690d78a8a9</t>
+  </si>
+  <si>
+    <t>fcffe2d0a69b4908a3640c18083f84d5</t>
+  </si>
+  <si>
+    <t>039db9e496084ac4bfed88743537bbf6</t>
+  </si>
+  <si>
+    <t>05e5e6f46e454764927d10f9575b5dfb</t>
+  </si>
+  <si>
+    <t>0bef7fa6725e41c5bd0be19523c55739</t>
+  </si>
+  <si>
+    <t>3750072e73a441d89a3f51849b355c9e</t>
+  </si>
+  <si>
+    <t>cbf1a4c4cfd441a7b11d17e750fc15e2</t>
   </si>
 </sst>
 </file>
@@ -361,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +440,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>3</v>
@@ -394,15 +448,15 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>5</v>
@@ -413,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -421,23 +475,175 @@
         <v>2</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>5</v>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/database_excel_files/CCMIdToCampId.xlsx
+++ b/database_excel_files/CCMIdToCampId.xlsx
@@ -415,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -438,214 +438,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database_excel_files/CCMIdToCampId.xlsx
+++ b/database_excel_files/CCMIdToCampId.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>campId</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>cbf1a4c4cfd441a7b11d17e750fc15e2</t>
+  </si>
+  <si>
+    <t>C123413</t>
+  </si>
+  <si>
+    <t>abcde</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -438,6 +444,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database_excel_files/CCMIdToCampId.xlsx
+++ b/database_excel_files/CCMIdToCampId.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angyu\Desktop\Uni stuff\Y2 SEM1\SC2002 - Obj Oriented Des &amp; Prog\Group project\SC2002_Lab_Project-main (9)\SC2002_Lab_Project-main\database_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D3B5F0BE-F6D2-403E-9656-2BEF4C6590C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{943D79E4-02C0-4532-9171-BF8AA099D4A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90953F9A-79E7-452E-BACD-BFD84ECB51A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,91 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>campId</t>
   </si>
   <si>
     <t>ccmId</t>
   </si>
-  <si>
-    <t>CCM1</t>
-  </si>
-  <si>
-    <t>aeebf47a69a24d0e863c39e58066d611</t>
-  </si>
-  <si>
-    <t>CCM2</t>
-  </si>
-  <si>
-    <t>b6d43c568bb647539135919c8c4eefd0</t>
-  </si>
-  <si>
-    <t>0c2f901a1f0348b49c9769fad9e1f702</t>
-  </si>
-  <si>
-    <t>c840388de3004a1480144eb7370695ba</t>
-  </si>
-  <si>
-    <t>47314cc237fe4507bc2269fdfc4e9772</t>
-  </si>
-  <si>
-    <t>027d823b7ed44ac390eaa7cb17fd2a02</t>
-  </si>
-  <si>
-    <t>CCasdM1</t>
-  </si>
-  <si>
-    <t>fd24f46687d448a296b6786b791388ed</t>
-  </si>
-  <si>
-    <t>CCasdM2</t>
-  </si>
-  <si>
-    <t>0de8b74b4e09469d8cf55e0997e6a701</t>
-  </si>
-  <si>
-    <t>CCasasddM1</t>
-  </si>
-  <si>
-    <t>CCasdMasd2</t>
-  </si>
-  <si>
-    <t>9f0c6278fc33441a8fc36b7420ff2c07</t>
-  </si>
-  <si>
-    <t>0423df356e6748d3b7f3e0690d78a8a9</t>
-  </si>
-  <si>
-    <t>fcffe2d0a69b4908a3640c18083f84d5</t>
-  </si>
-  <si>
-    <t>039db9e496084ac4bfed88743537bbf6</t>
-  </si>
-  <si>
-    <t>05e5e6f46e454764927d10f9575b5dfb</t>
-  </si>
-  <si>
-    <t>0bef7fa6725e41c5bd0be19523c55739</t>
-  </si>
-  <si>
-    <t>3750072e73a441d89a3f51849b355c9e</t>
-  </si>
-  <si>
-    <t>cbf1a4c4cfd441a7b11d17e750fc15e2</t>
-  </si>
-  <si>
-    <t>C123413</t>
-  </si>
-  <si>
-    <t>abcde</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,35 +348,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5703125"/>
-    <col min="2" max="2" customWidth="true" width="26.85546875"/>
-    <col min="3" max="3" customWidth="true" width="27.42578125"/>
-    <col min="4" max="4" customWidth="true" width="22.42578125"/>
-    <col min="5" max="5" customWidth="true" width="21.85546875"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
